--- a/data/trans_orig/P72-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P72-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBAA3E56-30B9-4B00-A1F2-0496FB6D6757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72B19DED-283C-48A6-9232-5F8B949AD7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3ABA61E8-37C7-4893-996F-9D16DE762E5A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B306B8D5-413E-40CC-9F00-4032011057E5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="721">
   <si>
     <t>Población según el intervalo en el que están comprendidos los ingresos totales netos de su hogar en 2007 (Tasa respuesta: 53,36%)</t>
   </si>
@@ -79,2122 +79,2128 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>De 3.000 a 4.999 euros</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>De 2.500 a 2.999 euros</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>De 2.000 a 2.499 euros</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>De 1.500 a 1.999 euros</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>De 1.000 a 1.499 euros</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>De 500 a 999 euros</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>Hasta 499 euros</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el intervalo en el que están comprendidos los ingresos totales netos de su hogar en 2012 (Tasa respuesta: 76,33%)</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>De 3.000 a 4.999 euros</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>Población según el intervalo en el que están comprendidos los ingresos totales netos de su hogar en 2015 (Tasa respuesta: 76,53%)</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>De 2.500 a 2.999 euros</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>De 2.000 a 2.499 euros</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>De 1.500 a 1.999 euros</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>De 1.000 a 1.499 euros</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>De 500 a 999 euros</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>Hasta 499 euros</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
   </si>
   <si>
     <t>8,33%</t>
   </si>
   <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
   </si>
   <si>
     <t>28,49%</t>
   </si>
   <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el intervalo en el que están comprendidos los ingresos totales netos de su hogar en 2012 (Tasa respuesta: 76,33%)</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>Población según el intervalo en el que están comprendidos los ingresos totales netos de su hogar en 2015 (Tasa respuesta: 76,53%)</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
+    <t>32,23%</t>
   </si>
   <si>
     <t>29,57%</t>
   </si>
   <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
   </si>
   <si>
     <t>29,89%</t>
   </si>
   <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
   </si>
   <si>
     <t>30,94%</t>
   </si>
   <si>
-    <t>29,28%</t>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
   </si>
   <si>
     <t>33,84%</t>
   </si>
   <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
   </si>
   <si>
     <t>32,42%</t>
   </si>
   <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
   </si>
   <si>
     <t>9,8%</t>
   </si>
   <si>
-    <t>10,99%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
   </si>
   <si>
     <t>10,82%</t>
   </si>
   <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
   </si>
 </sst>
 </file>
@@ -2606,7 +2612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C77CCF8-0D0C-4372-9D56-036629664FE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483CB767-7BB5-4FE4-A326-18E75E2F2E44}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2811,13 +2817,13 @@
         <v>4876</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,16 +2871,16 @@
         <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>42</v>
@@ -2883,13 +2889,13 @@
         <v>42232</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
@@ -2898,13 +2904,13 @@
         <v>37738</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M7" s="7">
         <v>79</v>
@@ -2913,19 +2919,19 @@
         <v>79970</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>127</v>
@@ -2934,13 +2940,13 @@
         <v>129065</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>101</v>
@@ -2949,13 +2955,13 @@
         <v>101966</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>228</v>
@@ -2964,19 +2970,19 @@
         <v>231031</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="7">
         <v>188</v>
@@ -2985,13 +2991,13 @@
         <v>191184</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>223</v>
@@ -3000,13 +3006,13 @@
         <v>230155</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M9" s="7">
         <v>411</v>
@@ -3015,19 +3021,19 @@
         <v>421338</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" s="7">
         <v>217</v>
@@ -3036,13 +3042,13 @@
         <v>211434</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H10" s="7">
         <v>241</v>
@@ -3051,13 +3057,13 @@
         <v>249643</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M10" s="7">
         <v>458</v>
@@ -3066,19 +3072,19 @@
         <v>461076</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" s="7">
         <v>22</v>
@@ -3087,13 +3093,13 @@
         <v>21964</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H11" s="7">
         <v>70</v>
@@ -3102,13 +3108,13 @@
         <v>72709</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M11" s="7">
         <v>92</v>
@@ -3117,13 +3123,13 @@
         <v>94673</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3144,13 @@
         <v>608935</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H12" s="7">
         <v>683</v>
@@ -3153,13 +3159,13 @@
         <v>704242</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M12" s="7">
         <v>1291</v>
@@ -3168,18 +3174,18 @@
         <v>1313176</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3191,13 +3197,13 @@
         <v>2730</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3206,13 +3212,13 @@
         <v>1997</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -3224,10 +3230,10 @@
         <v>15</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3248,13 @@
         <v>23220</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -3260,10 +3266,10 @@
         <v>96</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="M14" s="7">
         <v>35</v>
@@ -3272,13 +3278,13 @@
         <v>35855</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3299,13 @@
         <v>36671</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H15" s="7">
         <v>33</v>
@@ -3308,13 +3314,13 @@
         <v>33817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M15" s="7">
         <v>69</v>
@@ -3323,19 +3329,19 @@
         <v>70489</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="7">
         <v>129</v>
@@ -3344,13 +3350,13 @@
         <v>136332</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H16" s="7">
         <v>130</v>
@@ -3359,13 +3365,13 @@
         <v>131578</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M16" s="7">
         <v>259</v>
@@ -3374,19 +3380,19 @@
         <v>267910</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="7">
         <v>286</v>
@@ -3395,13 +3401,13 @@
         <v>294620</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H17" s="7">
         <v>215</v>
@@ -3410,13 +3416,13 @@
         <v>218592</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M17" s="7">
         <v>501</v>
@@ -3425,19 +3431,19 @@
         <v>513211</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" s="7">
         <v>308</v>
@@ -3446,13 +3452,13 @@
         <v>312945</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H18" s="7">
         <v>285</v>
@@ -3461,13 +3467,13 @@
         <v>291567</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M18" s="7">
         <v>593</v>
@@ -3476,19 +3482,19 @@
         <v>604512</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" s="7">
         <v>89</v>
@@ -3497,13 +3503,13 @@
         <v>92802</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H19" s="7">
         <v>92</v>
@@ -3512,13 +3518,13 @@
         <v>97862</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M19" s="7">
         <v>181</v>
@@ -3527,19 +3533,19 @@
         <v>190664</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" s="7">
         <v>9</v>
@@ -3566,7 +3572,7 @@
         <v>33</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>148</v>
@@ -3599,13 +3605,13 @@
         <v>910169</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H21" s="7">
         <v>781</v>
@@ -3614,13 +3620,13 @@
         <v>799823</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M21" s="7">
         <v>1663</v>
@@ -3629,13 +3635,13 @@
         <v>1709992</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,13 +3658,13 @@
         <v>2683</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3667,13 +3673,13 @@
         <v>4164</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -3682,13 +3688,13 @@
         <v>6847</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,13 +3709,13 @@
         <v>35986</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>17</v>
@@ -3718,13 +3724,13 @@
         <v>18352</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>51</v>
@@ -3733,13 +3739,13 @@
         <v>54338</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,13 +3760,13 @@
         <v>40848</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>35</v>
@@ -3769,13 +3775,13 @@
         <v>36994</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>76</v>
@@ -3784,19 +3790,19 @@
         <v>77842</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
         <v>80</v>
@@ -3805,13 +3811,13 @@
         <v>83373</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -3820,7 +3826,7 @@
         <v>54971</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>182</v>
@@ -3847,7 +3853,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>73</v>
@@ -3898,7 +3904,7 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="7">
         <v>43</v>
@@ -3910,10 +3916,10 @@
         <v>196</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="H27" s="7">
         <v>47</v>
@@ -3922,13 +3928,13 @@
         <v>49959</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M27" s="7">
         <v>90</v>
@@ -3937,19 +3943,19 @@
         <v>96391</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="7">
         <v>9</v>
@@ -3958,13 +3964,13 @@
         <v>9178</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H28" s="7">
         <v>21</v>
@@ -3973,13 +3979,13 @@
         <v>21847</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M28" s="7">
         <v>30</v>
@@ -3988,19 +3994,19 @@
         <v>31025</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C29" s="7">
         <v>4</v>
@@ -4009,13 +4015,13 @@
         <v>5086</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -4024,13 +4030,13 @@
         <v>4412</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -4039,13 +4045,13 @@
         <v>9498</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>218</v>
+        <v>95</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,13 +4066,13 @@
         <v>303150</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H30" s="7">
         <v>234</v>
@@ -4075,13 +4081,13 @@
         <v>246024</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M30" s="7">
         <v>520</v>
@@ -4090,13 +4096,13 @@
         <v>549174</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,13 +4119,13 @@
         <v>6322</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>221</v>
+        <v>17</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -4128,13 +4134,13 @@
         <v>6162</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>221</v>
+        <v>17</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>11</v>
@@ -4143,13 +4149,13 @@
         <v>12483</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P31" s="7" t="s">
-        <v>226</v>
-      </c>
       <c r="Q31" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,13 +4170,13 @@
         <v>62762</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>148</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>30</v>
@@ -4179,13 +4185,13 @@
         <v>32307</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>90</v>
@@ -4194,13 +4200,13 @@
         <v>95069</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,13 +4221,13 @@
         <v>86110</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H33" s="7">
         <v>78</v>
@@ -4230,13 +4236,13 @@
         <v>81523</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="M33" s="7">
         <v>163</v>
@@ -4245,19 +4251,19 @@
         <v>167633</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>100</v>
+        <v>237</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" s="7">
         <v>251</v>
@@ -4266,13 +4272,13 @@
         <v>261937</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H34" s="7">
         <v>220</v>
@@ -4281,13 +4287,13 @@
         <v>224287</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M34" s="7">
         <v>471</v>
@@ -4296,19 +4302,19 @@
         <v>486224</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" s="7">
         <v>486</v>
@@ -4317,13 +4323,13 @@
         <v>503250</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H35" s="7">
         <v>369</v>
@@ -4332,13 +4338,13 @@
         <v>375882</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M35" s="7">
         <v>855</v>
@@ -4347,19 +4353,19 @@
         <v>879132</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" s="7">
         <v>539</v>
@@ -4368,13 +4374,13 @@
         <v>550560</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H36" s="7">
         <v>555</v>
@@ -4383,13 +4389,13 @@
         <v>571680</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M36" s="7">
         <v>1094</v>
@@ -4398,19 +4404,19 @@
         <v>1122240</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C37" s="7">
         <v>315</v>
@@ -4419,13 +4425,13 @@
         <v>313414</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H37" s="7">
         <v>354</v>
@@ -4434,13 +4440,13 @@
         <v>369351</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M37" s="7">
         <v>669</v>
@@ -4449,19 +4455,19 @@
         <v>682765</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C38" s="7">
         <v>35</v>
@@ -4470,13 +4476,13 @@
         <v>37898</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H38" s="7">
         <v>86</v>
@@ -4485,13 +4491,13 @@
         <v>88897</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>282</v>
+        <v>38</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M38" s="7">
         <v>121</v>
@@ -4500,13 +4506,13 @@
         <v>126795</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>286</v>
+        <v>101</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4527,13 @@
         <v>1822253</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H39" s="7">
         <v>1698</v>
@@ -4536,13 +4542,13 @@
         <v>1750089</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M39" s="7">
         <v>3474</v>
@@ -4551,18 +4557,18 @@
         <v>3572342</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -4581,7 +4587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3230C3-545C-4FED-AE5E-839413CCFE68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1801AB73-5B33-4FB4-A58E-62E6B2BCEE07}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4598,7 +4604,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4711,7 +4717,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4720,13 +4726,13 @@
         <v>2134</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>291</v>
+        <v>221</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>285</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4735,13 +4741,13 @@
         <v>2134</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>221</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +4762,13 @@
         <v>4066</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>292</v>
+        <v>146</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4771,13 +4777,13 @@
         <v>1894</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>294</v>
+        <v>220</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>227</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -4786,13 +4792,13 @@
         <v>5960</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4813,13 @@
         <v>3743</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>159</v>
+        <v>290</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -4822,13 +4828,13 @@
         <v>6145</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>291</v>
+        <v>221</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>300</v>
+        <v>157</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -4837,19 +4843,19 @@
         <v>9887</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>17</v>
@@ -4858,13 +4864,13 @@
         <v>19052</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>305</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -4873,13 +4879,13 @@
         <v>29882</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>307</v>
+        <v>224</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -4888,19 +4894,19 @@
         <v>48934</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>310</v>
+        <v>228</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>73</v>
@@ -4909,13 +4915,13 @@
         <v>82075</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="H8" s="7">
         <v>88</v>
@@ -4924,13 +4930,13 @@
         <v>95279</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="M8" s="7">
         <v>161</v>
@@ -4939,19 +4945,19 @@
         <v>177354</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="7">
         <v>279</v>
@@ -4960,13 +4966,13 @@
         <v>297829</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="H9" s="7">
         <v>362</v>
@@ -4975,13 +4981,13 @@
         <v>389726</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="M9" s="7">
         <v>641</v>
@@ -4990,19 +4996,19 @@
         <v>687555</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" s="7">
         <v>307</v>
@@ -5011,13 +5017,13 @@
         <v>327898</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
         <v>472</v>
@@ -5026,13 +5032,13 @@
         <v>499445</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
         <v>779</v>
@@ -5041,19 +5047,19 @@
         <v>827342</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" s="7">
         <v>57</v>
@@ -5062,13 +5068,13 @@
         <v>60148</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="H11" s="7">
         <v>65</v>
@@ -5077,13 +5083,13 @@
         <v>69644</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="M11" s="7">
         <v>122</v>
@@ -5092,13 +5098,13 @@
         <v>129792</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5119,13 @@
         <v>794812</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H12" s="7">
         <v>1023</v>
@@ -5128,13 +5134,13 @@
         <v>1094148</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M12" s="7">
         <v>1764</v>
@@ -5143,18 +5149,18 @@
         <v>1888959</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5166,13 +5172,13 @@
         <v>895</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -5187,7 +5193,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -5196,13 +5202,13 @@
         <v>2875</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>15</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5223,13 @@
         <v>25481</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -5232,13 +5238,13 @@
         <v>7128</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="M14" s="7">
         <v>29</v>
@@ -5247,13 +5253,13 @@
         <v>32609</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>155</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5274,13 @@
         <v>50890</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="H15" s="7">
         <v>41</v>
@@ -5283,13 +5289,13 @@
         <v>44293</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="M15" s="7">
         <v>86</v>
@@ -5298,19 +5304,19 @@
         <v>95183</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>29</v>
+        <v>356</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="7">
         <v>132</v>
@@ -5319,13 +5325,13 @@
         <v>139535</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H16" s="7">
         <v>105</v>
@@ -5334,13 +5340,13 @@
         <v>114854</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>369</v>
+        <v>303</v>
       </c>
       <c r="M16" s="7">
         <v>237</v>
@@ -5349,19 +5355,19 @@
         <v>254389</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="7">
         <v>280</v>
@@ -5370,13 +5376,13 @@
         <v>299177</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="H17" s="7">
         <v>257</v>
@@ -5385,13 +5391,13 @@
         <v>275270</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="M17" s="7">
         <v>537</v>
@@ -5400,19 +5406,19 @@
         <v>574447</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" s="7">
         <v>574</v>
@@ -5421,13 +5427,13 @@
         <v>599841</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="H18" s="7">
         <v>494</v>
@@ -5436,13 +5442,13 @@
         <v>527477</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="M18" s="7">
         <v>1068</v>
@@ -5451,19 +5457,19 @@
         <v>1127318</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" s="7">
         <v>264</v>
@@ -5472,13 +5478,13 @@
         <v>280996</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>182</v>
+        <v>384</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="H19" s="7">
         <v>281</v>
@@ -5487,13 +5493,13 @@
         <v>306879</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="M19" s="7">
         <v>545</v>
@@ -5502,19 +5508,19 @@
         <v>587875</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" s="7">
         <v>56</v>
@@ -5523,13 +5529,13 @@
         <v>60881</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="H20" s="7">
         <v>49</v>
@@ -5538,13 +5544,13 @@
         <v>54894</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="M20" s="7">
         <v>105</v>
@@ -5553,13 +5559,13 @@
         <v>115775</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,13 +5580,13 @@
         <v>1457697</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H21" s="7">
         <v>1236</v>
@@ -5589,13 +5595,13 @@
         <v>1332773</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M21" s="7">
         <v>2610</v>
@@ -5604,13 +5610,13 @@
         <v>2790470</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,13 +5633,13 @@
         <v>4445</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>406</v>
+        <v>214</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -5642,13 +5648,13 @@
         <v>998</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>408</v>
+        <v>338</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -5657,13 +5663,13 @@
         <v>5443</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>13</v>
+        <v>403</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>408</v>
+        <v>88</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>410</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,13 +5684,13 @@
         <v>24064</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="H23" s="7">
         <v>17</v>
@@ -5693,13 +5699,13 @@
         <v>20198</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>237</v>
+        <v>408</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="M23" s="7">
         <v>37</v>
@@ -5708,13 +5714,13 @@
         <v>44262</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>236</v>
+        <v>411</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,13 +5735,13 @@
         <v>35219</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -5744,13 +5750,13 @@
         <v>30245</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="M24" s="7">
         <v>61</v>
@@ -5759,19 +5765,19 @@
         <v>65463</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>340</v>
+        <v>419</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
         <v>71</v>
@@ -5780,13 +5786,13 @@
         <v>75521</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -5795,13 +5801,13 @@
         <v>53855</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M25" s="7">
         <v>120</v>
@@ -5810,19 +5816,19 @@
         <v>129376</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>67</v>
@@ -5831,13 +5837,13 @@
         <v>78327</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H26" s="7">
         <v>79</v>
@@ -5846,13 +5852,13 @@
         <v>87972</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="M26" s="7">
         <v>146</v>
@@ -5861,19 +5867,19 @@
         <v>166300</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="7">
         <v>72</v>
@@ -5882,13 +5888,13 @@
         <v>81461</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H27" s="7">
         <v>81</v>
@@ -5897,13 +5903,13 @@
         <v>88488</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>448</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>153</v>
@@ -5912,19 +5918,19 @@
         <v>169949</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="7">
         <v>14</v>
@@ -5933,13 +5939,13 @@
         <v>16488</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>452</v>
+        <v>333</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="H28" s="7">
         <v>27</v>
@@ -5948,13 +5954,13 @@
         <v>31893</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="M28" s="7">
         <v>41</v>
@@ -5963,19 +5969,19 @@
         <v>48381</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C29" s="7">
         <v>10</v>
@@ -5984,13 +5990,13 @@
         <v>11519</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>343</v>
+        <v>457</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -5999,13 +6005,13 @@
         <v>12272</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="M29" s="7">
         <v>21</v>
@@ -6014,13 +6020,13 @@
         <v>23791</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>467</v>
+        <v>297</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +6041,13 @@
         <v>327044</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H30" s="7">
         <v>292</v>
@@ -6050,13 +6056,13 @@
         <v>325922</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M30" s="7">
         <v>584</v>
@@ -6065,13 +6071,13 @@
         <v>652966</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6088,13 +6094,13 @@
         <v>5340</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>16</v>
+        <v>464</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -6109,7 +6115,7 @@
         <v>16</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -6118,13 +6124,13 @@
         <v>10452</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>291</v>
+        <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6139,13 +6145,13 @@
         <v>53611</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>351</v>
+        <v>32</v>
       </c>
       <c r="H32" s="7">
         <v>26</v>
@@ -6154,13 +6160,13 @@
         <v>29220</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>30</v>
+        <v>469</v>
       </c>
       <c r="M32" s="7">
         <v>72</v>
@@ -6169,13 +6175,13 @@
         <v>82831</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,13 +6196,13 @@
         <v>89852</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="H33" s="7">
         <v>73</v>
@@ -6205,13 +6211,13 @@
         <v>80682</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>480</v>
+        <v>395</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>240</v>
+        <v>408</v>
       </c>
       <c r="M33" s="7">
         <v>156</v>
@@ -6220,19 +6226,19 @@
         <v>170534</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>482</v>
+        <v>109</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>32</v>
+        <v>356</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" s="7">
         <v>220</v>
@@ -6241,13 +6247,13 @@
         <v>234109</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>484</v>
+        <v>334</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>485</v>
+        <v>80</v>
       </c>
       <c r="H34" s="7">
         <v>181</v>
@@ -6256,13 +6262,13 @@
         <v>198591</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>486</v>
+        <v>279</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="M34" s="7">
         <v>401</v>
@@ -6271,19 +6277,19 @@
         <v>432699</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>365</v>
+        <v>479</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>489</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" s="7">
         <v>420</v>
@@ -6292,13 +6298,13 @@
         <v>459580</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="H35" s="7">
         <v>424</v>
@@ -6307,13 +6313,13 @@
         <v>458521</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="M35" s="7">
         <v>844</v>
@@ -6322,19 +6328,19 @@
         <v>918101</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" s="7">
         <v>925</v>
@@ -6343,13 +6349,13 @@
         <v>979131</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="H36" s="7">
         <v>937</v>
@@ -6358,13 +6364,13 @@
         <v>1005691</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>64</v>
+        <v>494</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="M36" s="7">
         <v>1862</v>
@@ -6373,19 +6379,19 @@
         <v>1984822</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C37" s="7">
         <v>585</v>
@@ -6394,13 +6400,13 @@
         <v>625382</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="H37" s="7">
         <v>780</v>
@@ -6409,13 +6415,13 @@
         <v>838217</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="M37" s="7">
         <v>1365</v>
@@ -6424,19 +6430,19 @@
         <v>1463599</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>187</v>
+        <v>506</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C38" s="7">
         <v>123</v>
@@ -6445,13 +6451,13 @@
         <v>132549</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>516</v>
+        <v>281</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>517</v>
+        <v>43</v>
       </c>
       <c r="H38" s="7">
         <v>125</v>
@@ -6460,13 +6466,13 @@
         <v>136810</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>399</v>
+        <v>510</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="M38" s="7">
         <v>248</v>
@@ -6475,13 +6481,13 @@
         <v>269358</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,13 +6502,13 @@
         <v>2579553</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H39" s="7">
         <v>2551</v>
@@ -6511,13 +6517,13 @@
         <v>2752842</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M39" s="7">
         <v>4958</v>
@@ -6526,18 +6532,18 @@
         <v>5332395</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -6556,7 +6562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEEE0095-9E62-41EF-9B81-0AF53FB58138}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844B0425-B403-4351-AA7A-1AB8611D46AE}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6573,7 +6579,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6686,7 +6692,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6695,13 +6701,13 @@
         <v>823</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>292</v>
+        <v>515</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -6710,13 +6716,13 @@
         <v>823</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6737,7 +6743,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6752,7 +6758,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6782,13 +6788,13 @@
         <v>3407</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>525</v>
+        <v>213</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -6803,7 +6809,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -6812,19 +6818,19 @@
         <v>5679</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>527</v>
+        <v>286</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>20</v>
+        <v>519</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>25</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>8</v>
@@ -6833,13 +6839,13 @@
         <v>8578</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>296</v>
+        <v>521</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>528</v>
+        <v>229</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -6848,13 +6854,13 @@
         <v>10307</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>360</v>
+        <v>522</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -6869,13 +6875,13 @@
         <v>219</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>49</v>
@@ -6884,13 +6890,13 @@
         <v>48917</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>533</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
         <v>40</v>
@@ -6899,13 +6905,13 @@
         <v>45078</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="M8" s="7">
         <v>89</v>
@@ -6914,19 +6920,19 @@
         <v>93995</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="7">
         <v>146</v>
@@ -6935,13 +6941,13 @@
         <v>143767</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="H9" s="7">
         <v>179</v>
@@ -6950,13 +6956,13 @@
         <v>196968</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="M9" s="7">
         <v>325</v>
@@ -6965,19 +6971,19 @@
         <v>340735</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" s="7">
         <v>345</v>
@@ -6986,13 +6992,13 @@
         <v>334574</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="H10" s="7">
         <v>386</v>
@@ -7001,13 +7007,13 @@
         <v>430735</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="M10" s="7">
         <v>731</v>
@@ -7016,19 +7022,19 @@
         <v>765309</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" s="7">
         <v>88</v>
@@ -7037,13 +7043,13 @@
         <v>89502</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>558</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="H11" s="7">
         <v>108</v>
@@ -7052,13 +7058,13 @@
         <v>120860</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="M11" s="7">
         <v>196</v>
@@ -7067,13 +7073,13 @@
         <v>210363</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>141</v>
+        <v>554</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>563</v>
+        <v>418</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7088,13 +7094,13 @@
         <v>628744</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H12" s="7">
         <v>725</v>
@@ -7103,13 +7109,13 @@
         <v>807044</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M12" s="7">
         <v>1364</v>
@@ -7118,18 +7124,18 @@
         <v>1435788</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7147,7 +7153,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>297</v>
+        <v>556</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -7162,7 +7168,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>297</v>
+        <v>556</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -7192,13 +7198,13 @@
         <v>8481</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>565</v>
+        <v>284</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>557</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -7207,13 +7213,13 @@
         <v>8974</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -7222,13 +7228,13 @@
         <v>17455</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>560</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>153</v>
+        <v>520</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7243,13 +7249,13 @@
         <v>34404</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>305</v>
+        <v>562</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="H15" s="7">
         <v>26</v>
@@ -7258,13 +7264,13 @@
         <v>27835</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>571</v>
+        <v>470</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>148</v>
+        <v>565</v>
       </c>
       <c r="M15" s="7">
         <v>58</v>
@@ -7273,19 +7279,19 @@
         <v>62239</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>232</v>
+        <v>567</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="7">
         <v>99</v>
@@ -7294,13 +7300,13 @@
         <v>101759</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>401</v>
+        <v>569</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>371</v>
+        <v>570</v>
       </c>
       <c r="H16" s="7">
         <v>106</v>
@@ -7309,13 +7315,13 @@
         <v>111924</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>488</v>
+        <v>571</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>574</v>
+        <v>417</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="M16" s="7">
         <v>205</v>
@@ -7324,19 +7330,19 @@
         <v>213683</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="7">
         <v>275</v>
@@ -7345,13 +7351,13 @@
         <v>294076</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H17" s="7">
         <v>269</v>
@@ -7360,13 +7366,13 @@
         <v>278862</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="M17" s="7">
         <v>544</v>
@@ -7375,34 +7381,34 @@
         <v>572938</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>426</v>
+        <v>582</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" s="7">
         <v>531</v>
       </c>
       <c r="D18" s="7">
-        <v>560478</v>
+        <v>560477</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>588</v>
       </c>
       <c r="H18" s="7">
         <v>488</v>
@@ -7411,13 +7417,13 @@
         <v>500682</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>591</v>
       </c>
       <c r="M18" s="7">
         <v>1019</v>
@@ -7426,19 +7432,19 @@
         <v>1061159</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" s="7">
         <v>400</v>
@@ -7447,13 +7453,13 @@
         <v>429983</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>595</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>596</v>
       </c>
       <c r="H19" s="7">
         <v>417</v>
@@ -7462,13 +7468,13 @@
         <v>438633</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>598</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>599</v>
       </c>
       <c r="M19" s="7">
         <v>817</v>
@@ -7477,19 +7483,19 @@
         <v>868616</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>601</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" s="7">
         <v>143</v>
@@ -7498,13 +7504,13 @@
         <v>155099</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>604</v>
       </c>
       <c r="H20" s="7">
         <v>142</v>
@@ -7513,13 +7519,13 @@
         <v>151162</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>606</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>607</v>
       </c>
       <c r="M20" s="7">
         <v>285</v>
@@ -7528,13 +7534,13 @@
         <v>306261</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>609</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7546,16 +7552,16 @@
         <v>1488</v>
       </c>
       <c r="D21" s="7">
-        <v>1584280</v>
+        <v>1584279</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H21" s="7">
         <v>1456</v>
@@ -7564,13 +7570,13 @@
         <v>1518072</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M21" s="7">
         <v>2944</v>
@@ -7579,13 +7585,13 @@
         <v>3102351</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7605,10 +7611,10 @@
         <v>610</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>213</v>
+        <v>611</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -7617,13 +7623,13 @@
         <v>2052</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>612</v>
+        <v>348</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -7632,13 +7638,13 @@
         <v>6979</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>527</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>614</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7653,13 +7659,13 @@
         <v>32741</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>616</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>617</v>
       </c>
       <c r="H23" s="7">
         <v>17</v>
@@ -7668,10 +7674,10 @@
         <v>18367</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>452</v>
+        <v>333</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>154</v>
+        <v>617</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>618</v>
@@ -7683,13 +7689,13 @@
         <v>51107</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>465</v>
+        <v>619</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7704,13 +7710,13 @@
         <v>44474</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -7719,13 +7725,13 @@
         <v>34112</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M24" s="7">
         <v>71</v>
@@ -7734,19 +7740,19 @@
         <v>78587</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>162</v>
+        <v>629</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
         <v>79</v>
@@ -7755,13 +7761,13 @@
         <v>89627</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H25" s="7">
         <v>72</v>
@@ -7770,13 +7776,13 @@
         <v>75873</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="M25" s="7">
         <v>151</v>
@@ -7785,19 +7791,19 @@
         <v>165500</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>635</v>
+        <v>434</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>78</v>
@@ -7806,13 +7812,13 @@
         <v>80298</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H26" s="7">
         <v>76</v>
@@ -7821,13 +7827,13 @@
         <v>76566</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="M26" s="7">
         <v>154</v>
@@ -7836,19 +7842,19 @@
         <v>156865</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="7">
         <v>74</v>
@@ -7857,7 +7863,7 @@
         <v>77663</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>647</v>
+        <v>387</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>648</v>
@@ -7899,7 +7905,7 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="7">
         <v>32</v>
@@ -7908,7 +7914,7 @@
         <v>36188</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>143</v>
+        <v>331</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>656</v>
@@ -7923,13 +7929,13 @@
         <v>40704</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>197</v>
+        <v>658</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>484</v>
+        <v>359</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M28" s="7">
         <v>72</v>
@@ -7938,19 +7944,19 @@
         <v>76892</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C29" s="7">
         <v>9</v>
@@ -7959,10 +7965,10 @@
         <v>9118</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>663</v>
+        <v>610</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>664</v>
@@ -7980,7 +7986,7 @@
         <v>666</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>667</v>
+        <v>531</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -7989,13 +7995,13 @@
         <v>27956</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>528</v>
+        <v>567</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>39</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8010,13 +8016,13 @@
         <v>375037</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H30" s="7">
         <v>353</v>
@@ -8025,13 +8031,13 @@
         <v>364162</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M30" s="7">
         <v>697</v>
@@ -8040,13 +8046,13 @@
         <v>739199</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8069,7 +8075,7 @@
         <v>16</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>406</v>
+        <v>668</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -8078,13 +8084,13 @@
         <v>2875</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>669</v>
+        <v>88</v>
       </c>
       <c r="M31" s="7">
         <v>8</v>
@@ -8099,7 +8105,7 @@
         <v>16</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>523</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8114,13 +8120,13 @@
         <v>41221</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>671</v>
-      </c>
       <c r="G32" s="7" t="s">
-        <v>672</v>
+        <v>147</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
@@ -8129,13 +8135,13 @@
         <v>27341</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>673</v>
+        <v>345</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>296</v>
+        <v>671</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="M32" s="7">
         <v>62</v>
@@ -8144,13 +8150,13 @@
         <v>68562</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>675</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8165,13 +8171,13 @@
         <v>82285</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>677</v>
+        <v>393</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>679</v>
+        <v>527</v>
       </c>
       <c r="H33" s="7">
         <v>61</v>
@@ -8180,13 +8186,13 @@
         <v>64220</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>680</v>
+        <v>353</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>402</v>
+        <v>677</v>
       </c>
       <c r="M33" s="7">
         <v>134</v>
@@ -8195,19 +8201,19 @@
         <v>146505</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>681</v>
+        <v>32</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>407</v>
+        <v>679</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" s="7">
         <v>186</v>
@@ -8216,13 +8222,13 @@
         <v>199964</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>418</v>
+        <v>680</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H34" s="7">
         <v>187</v>
@@ -8231,13 +8237,13 @@
         <v>198103</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>488</v>
+        <v>571</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>343</v>
+        <v>683</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>685</v>
+        <v>161</v>
       </c>
       <c r="M34" s="7">
         <v>373</v>
@@ -8246,19 +8252,19 @@
         <v>398067</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>686</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" s="7">
         <v>402</v>
@@ -8267,13 +8273,13 @@
         <v>423292</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>689</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>690</v>
       </c>
       <c r="H35" s="7">
         <v>385</v>
@@ -8282,13 +8288,13 @@
         <v>400506</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>691</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>692</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>693</v>
       </c>
       <c r="M35" s="7">
         <v>787</v>
@@ -8297,19 +8303,19 @@
         <v>823797</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>695</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" s="7">
         <v>751</v>
@@ -8318,13 +8324,13 @@
         <v>781907</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>697</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>698</v>
       </c>
       <c r="H36" s="7">
         <v>762</v>
@@ -8333,13 +8339,13 @@
         <v>795301</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>699</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>700</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>701</v>
       </c>
       <c r="M36" s="7">
         <v>1513</v>
@@ -8348,19 +8354,19 @@
         <v>1577207</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>703</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C37" s="7">
         <v>777</v>
@@ -8369,13 +8375,13 @@
         <v>800745</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>705</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>706</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H37" s="7">
         <v>843</v>
@@ -8411,7 +8417,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C38" s="7">
         <v>240</v>
@@ -8423,10 +8429,10 @@
         <v>713</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>84</v>
+        <v>714</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H38" s="7">
         <v>268</v>
@@ -8435,13 +8441,13 @@
         <v>290860</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="M38" s="7">
         <v>508</v>
@@ -8450,13 +8456,13 @@
         <v>544579</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>166</v>
+        <v>720</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8471,13 +8477,13 @@
         <v>2588061</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H39" s="7">
         <v>2534</v>
@@ -8486,13 +8492,13 @@
         <v>2689277</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M39" s="7">
         <v>5005</v>
@@ -8501,18 +8507,18 @@
         <v>5277338</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P72-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P72-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31BBFE50-2A21-4004-BB35-C3B4F46EDD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B30150B1-9861-4E39-A7EF-7C7132E20F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{06CFF956-7CE5-4BDF-BCB2-EBB5B40A704B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0423AB30-3EB8-43A7-A131-46ACADBBFD89}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -2606,7 +2606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F948A720-0763-49F2-B538-F237C84BF625}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CD3863-0A59-49F9-9093-10B1BCE8EAFB}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2997,7 +2997,7 @@
         <v>223</v>
       </c>
       <c r="I9" s="7">
-        <v>230155</v>
+        <v>230154</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>59</v>
@@ -3048,7 +3048,7 @@
         <v>241</v>
       </c>
       <c r="I10" s="7">
-        <v>249643</v>
+        <v>249642</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>69</v>
@@ -3150,7 +3150,7 @@
         <v>683</v>
       </c>
       <c r="I12" s="7">
-        <v>704242</v>
+        <v>704241</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>85</v>
@@ -4581,7 +4581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0C4533-8CB2-4FA4-8223-325D2A78A6EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B638C14E-4EE1-4E62-AB00-10B57438AD57}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5741,7 +5741,7 @@
         <v>27</v>
       </c>
       <c r="I24" s="7">
-        <v>30245</v>
+        <v>30244</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>420</v>
@@ -6047,7 +6047,7 @@
         <v>292</v>
       </c>
       <c r="I30" s="7">
-        <v>325922</v>
+        <v>325921</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>85</v>
@@ -6556,7 +6556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F6EA36-9C87-427D-B710-D69F058CA567}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7115AD-EFB9-483F-A0D6-F6F68501935C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7393,7 +7393,7 @@
         <v>531</v>
       </c>
       <c r="D18" s="7">
-        <v>560478</v>
+        <v>560477</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>120</v>
@@ -7546,7 +7546,7 @@
         <v>1488</v>
       </c>
       <c r="D21" s="7">
-        <v>1584280</v>
+        <v>1584279</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>85</v>
